--- a/data/2016 IP MASTERLIST.xlsx
+++ b/data/2016 IP MASTERLIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A823023F-A775-4439-BC08-C26594017514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418F7225-AEB1-4AB6-ACC8-CD240B17A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="346">
   <si>
     <t>IPRO file number</t>
   </si>
@@ -516,9 +516,6 @@
     <t xml:space="preserve">DevC 180 Strategic Communication in development </t>
   </si>
   <si>
-    <t>Christine Grace S. Fuchigami and Anna Liza B. Wakat</t>
-  </si>
-  <si>
     <t>978-971-006-155-6</t>
   </si>
   <si>
@@ -846,9 +843,6 @@
     <t>DevC 130 Broadcast Speech and Performance</t>
   </si>
   <si>
-    <t>Michelle B. Gatab-Laruan and Anna Liza B. Wakat</t>
-  </si>
-  <si>
     <t>978-971-006-194-5</t>
   </si>
   <si>
@@ -969,18 +963,12 @@
     <t>978-971-006-206-5</t>
   </si>
   <si>
-    <t>ISSN APPLICATIONS YEAR 2016</t>
-  </si>
-  <si>
     <t>2016-Br.1-01</t>
   </si>
   <si>
     <t>SUKIMAT-The Refereed Multidisciplinary and Scholarly Journal of the University of Baguio</t>
   </si>
   <si>
-    <t>2015, Semi-Annual</t>
-  </si>
-  <si>
     <t>2467-7175</t>
   </si>
   <si>
@@ -1038,9 +1026,6 @@
     <t>Smoked Pork Liquid Seasoning</t>
   </si>
   <si>
-    <t xml:space="preserve">Garambas, Cynthia D., Balauro, Sherilyn B. </t>
-  </si>
-  <si>
     <t>With certificate (filing date 04/26/2016)</t>
   </si>
   <si>
@@ -1075,6 +1060,21 @@
   </si>
   <si>
     <t>College/Center</t>
+  </si>
+  <si>
+    <t>Starting Date</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Semi-Annual</t>
+  </si>
+  <si>
+    <t>Michelle B. Gatab-Laruan, Anna Liza B. Wakat</t>
+  </si>
+  <si>
+    <t>Cynthia D. Garambas, Sherilyn B. Balauro</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
     <numFmt numFmtId="165" formatCode="mmm&quot; &quot;d&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1099,11 +1099,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1197,7 +1192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1215,43 +1210,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF38761D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF274E13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF274E13"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF274E13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF274E13"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF274E13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF274E13"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF274E13"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF274E13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,143 +1299,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,8 +1653,8 @@
   <dimension ref="A1:P903"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:Y1048576"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1719,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>1</v>
@@ -7352,8 +7306,8 @@
   <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7483,14 +7437,14 @@
         <v>158</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="65">
         <v>42552</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="20">
         <v>2</v>
@@ -7502,11 +7456,11 @@
     </row>
     <row r="6" spans="1:10" ht="13.2">
       <c r="A6" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>54</v>
@@ -7516,7 +7470,7 @@
         <v>42430</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="20">
         <v>1</v>
@@ -7528,7 +7482,7 @@
     </row>
     <row r="7" spans="1:10" ht="52.8">
       <c r="A7" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
@@ -7542,7 +7496,7 @@
         <v>42430</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
@@ -7554,11 +7508,11 @@
     </row>
     <row r="8" spans="1:10" ht="52.8">
       <c r="A8" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>12</v>
@@ -7568,7 +7522,7 @@
         <v>42430</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="20">
         <v>1</v>
@@ -7580,7 +7534,7 @@
     </row>
     <row r="9" spans="1:10" ht="26.4">
       <c r="A9" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22" t="s">
@@ -7594,7 +7548,7 @@
         <v>42430</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="20">
         <v>1</v>
@@ -7606,11 +7560,11 @@
     </row>
     <row r="10" spans="1:10" ht="52.8">
       <c r="A10" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>18</v>
@@ -7620,7 +7574,7 @@
         <v>42430</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="20">
         <v>1</v>
@@ -7632,11 +7586,11 @@
     </row>
     <row r="11" spans="1:10" ht="52.8">
       <c r="A11" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>18</v>
@@ -7646,7 +7600,7 @@
         <v>42430</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="20">
         <v>1</v>
@@ -7658,7 +7612,7 @@
     </row>
     <row r="12" spans="1:10" ht="26.4">
       <c r="A12" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
@@ -7672,7 +7626,7 @@
         <v>42430</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="20">
         <v>1</v>
@@ -7684,7 +7638,7 @@
     </row>
     <row r="13" spans="1:10" ht="26.4">
       <c r="A13" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
@@ -7698,7 +7652,7 @@
         <v>42430</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="20">
         <v>1</v>
@@ -7710,7 +7664,7 @@
     </row>
     <row r="14" spans="1:10" ht="13.2">
       <c r="A14" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
@@ -7724,7 +7678,7 @@
         <v>42534</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="20">
         <v>2</v>
@@ -7736,11 +7690,11 @@
     </row>
     <row r="15" spans="1:10" ht="52.8">
       <c r="A15" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>66</v>
@@ -7750,7 +7704,7 @@
         <v>42534</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="20">
         <v>2</v>
@@ -7762,21 +7716,21 @@
     </row>
     <row r="16" spans="1:10" ht="26.4">
       <c r="A16" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="65">
         <v>42534</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="20">
         <v>2</v>
@@ -7788,21 +7742,21 @@
     </row>
     <row r="17" spans="1:10" ht="132">
       <c r="A17" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="65">
         <v>42534</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" s="20">
         <v>2</v>
@@ -7814,21 +7768,21 @@
     </row>
     <row r="18" spans="1:10" ht="39.6">
       <c r="A18" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="65">
         <v>42534</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="20">
         <v>2</v>
@@ -7840,21 +7794,21 @@
     </row>
     <row r="19" spans="1:10" ht="79.2">
       <c r="A19" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="65">
         <v>42534</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H19" s="20">
         <v>2</v>
@@ -7866,11 +7820,11 @@
     </row>
     <row r="20" spans="1:10" ht="13.2">
       <c r="A20" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>101</v>
@@ -7880,7 +7834,7 @@
         <v>42552</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="20">
         <v>3</v>
@@ -7892,7 +7846,7 @@
     </row>
     <row r="21" spans="1:10" ht="26.4">
       <c r="A21" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
@@ -7906,7 +7860,7 @@
         <v>42552</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H21" s="20">
         <v>3</v>
@@ -7918,11 +7872,11 @@
     </row>
     <row r="22" spans="1:10" ht="26.4">
       <c r="A22" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>101</v>
@@ -7932,7 +7886,7 @@
         <v>42552</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H22" s="20">
         <v>3</v>
@@ -7944,11 +7898,11 @@
     </row>
     <row r="23" spans="1:10" ht="26.4">
       <c r="A23" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>101</v>
@@ -7958,7 +7912,7 @@
         <v>42552</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H23" s="20">
         <v>3</v>
@@ -7970,11 +7924,11 @@
     </row>
     <row r="24" spans="1:10" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>101</v>
@@ -7984,7 +7938,7 @@
         <v>42552</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H24" s="20">
         <v>3</v>
@@ -7996,11 +7950,11 @@
     </row>
     <row r="25" spans="1:10" ht="39.6">
       <c r="A25" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>101</v>
@@ -8010,7 +7964,7 @@
         <v>42552</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H25" s="20">
         <v>3</v>
@@ -8022,11 +7976,11 @@
     </row>
     <row r="26" spans="1:10" ht="26.4">
       <c r="A26" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>101</v>
@@ -8036,7 +7990,7 @@
         <v>42552</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="20">
         <v>3</v>
@@ -8048,11 +8002,11 @@
     </row>
     <row r="27" spans="1:10" ht="13.2">
       <c r="A27" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>101</v>
@@ -8062,7 +8016,7 @@
         <v>42552</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="20">
         <v>3</v>
@@ -8074,11 +8028,11 @@
     </row>
     <row r="28" spans="1:10" ht="26.4">
       <c r="A28" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>101</v>
@@ -8088,7 +8042,7 @@
         <v>42552</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H28" s="20">
         <v>3</v>
@@ -8100,11 +8054,11 @@
     </row>
     <row r="29" spans="1:10" ht="26.4">
       <c r="A29" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>101</v>
@@ -8114,7 +8068,7 @@
         <v>42552</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H29" s="20">
         <v>3</v>
@@ -8126,11 +8080,11 @@
     </row>
     <row r="30" spans="1:10" ht="26.4">
       <c r="A30" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>101</v>
@@ -8140,7 +8094,7 @@
         <v>42552</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H30" s="20">
         <v>3</v>
@@ -8152,11 +8106,11 @@
     </row>
     <row r="31" spans="1:10" ht="13.2">
       <c r="A31" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>101</v>
@@ -8166,7 +8120,7 @@
         <v>42552</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H31" s="20">
         <v>3</v>
@@ -8178,11 +8132,11 @@
     </row>
     <row r="32" spans="1:10" ht="13.2">
       <c r="A32" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>101</v>
@@ -8192,7 +8146,7 @@
         <v>42552</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" s="20">
         <v>3</v>
@@ -8204,21 +8158,21 @@
     </row>
     <row r="33" spans="1:10" ht="39.6">
       <c r="A33" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="65">
         <v>42552</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" s="20">
         <v>3</v>
@@ -8230,21 +8184,21 @@
     </row>
     <row r="34" spans="1:10" ht="39.6">
       <c r="A34" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="65">
         <v>42712</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H34" s="20">
         <v>4</v>
@@ -8256,21 +8210,21 @@
     </row>
     <row r="35" spans="1:10" ht="26.4">
       <c r="A35" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="65">
         <v>42712</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35" s="20">
         <v>4</v>
@@ -8282,21 +8236,21 @@
     </row>
     <row r="36" spans="1:10" ht="13.2">
       <c r="A36" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="65">
         <v>42712</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H36" s="20">
         <v>4</v>
@@ -8308,7 +8262,7 @@
     </row>
     <row r="37" spans="1:10" ht="26.4">
       <c r="A37" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="22" t="s">
@@ -8322,7 +8276,7 @@
         <v>42712</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" s="20">
         <v>4</v>
@@ -8334,21 +8288,21 @@
     </row>
     <row r="38" spans="1:10" ht="13.2">
       <c r="A38" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>258</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="65">
         <v>42712</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H38" s="20">
         <v>4</v>
@@ -8360,21 +8314,21 @@
     </row>
     <row r="39" spans="1:10" ht="26.4">
       <c r="A39" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="65">
         <v>42712</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H39" s="20">
         <v>4</v>
@@ -8386,21 +8340,21 @@
     </row>
     <row r="40" spans="1:10" ht="39.6">
       <c r="A40" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>265</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="65">
         <v>42712</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H40" s="20">
         <v>4</v>
@@ -8412,21 +8366,21 @@
     </row>
     <row r="41" spans="1:10" ht="39.6">
       <c r="A41" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="65">
         <v>42712</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H41" s="20">
         <v>4</v>
@@ -8438,21 +8392,21 @@
     </row>
     <row r="42" spans="1:10" ht="26.4">
       <c r="A42" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="65">
         <v>42712</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H42" s="20">
         <v>4</v>
@@ -8464,21 +8418,21 @@
     </row>
     <row r="43" spans="1:10" ht="52.8">
       <c r="A43" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="65">
         <v>42712</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H43" s="20">
         <v>4</v>
@@ -8490,21 +8444,21 @@
     </row>
     <row r="44" spans="1:10" ht="39.6">
       <c r="A44" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="65">
         <v>42712</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H44" s="20">
         <v>4</v>
@@ -8516,21 +8470,21 @@
     </row>
     <row r="45" spans="1:10" ht="39.6">
       <c r="A45" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="65">
         <v>42712</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H45" s="20">
         <v>4</v>
@@ -8542,21 +8496,21 @@
     </row>
     <row r="46" spans="1:10" ht="26.4">
       <c r="A46" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="65">
         <v>42712</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H46" s="20">
         <v>4</v>
@@ -8568,11 +8522,11 @@
     </row>
     <row r="47" spans="1:10" ht="26.4">
       <c r="A47" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>120</v>
@@ -8582,7 +8536,7 @@
         <v>42725</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H47" s="20">
         <v>4</v>
@@ -8594,11 +8548,11 @@
     </row>
     <row r="48" spans="1:10" ht="26.4">
       <c r="A48" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>120</v>
@@ -8608,7 +8562,7 @@
         <v>42725</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H48" s="20">
         <v>4</v>
@@ -8620,11 +8574,11 @@
     </row>
     <row r="49" spans="1:10" ht="26.4">
       <c r="A49" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>120</v>
@@ -8634,7 +8588,7 @@
         <v>42725</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H49" s="20">
         <v>4</v>
@@ -8646,21 +8600,21 @@
     </row>
     <row r="50" spans="1:10" ht="26.4">
       <c r="A50" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="65">
         <v>42725</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H50" s="20">
         <v>4</v>
@@ -8672,21 +8626,21 @@
     </row>
     <row r="51" spans="1:10" ht="26.4">
       <c r="A51" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="65">
         <v>42725</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H51" s="20">
         <v>4</v>
@@ -8698,21 +8652,21 @@
     </row>
     <row r="52" spans="1:10" ht="39.6">
       <c r="A52" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="65">
         <v>42725</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H52" s="20">
         <v>4</v>
@@ -8724,7 +8678,7 @@
     </row>
     <row r="53" spans="1:10" ht="13.2">
       <c r="A53" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="22" t="s">
@@ -8738,7 +8692,7 @@
         <v>42725</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H53" s="20">
         <v>4</v>
@@ -8954,79 +8908,75 @@
     <row r="96" spans="2:9" ht="13.2">
       <c r="B96" s="24"/>
     </row>
-    <row r="97" spans="1:7" ht="13.2">
+    <row r="97" spans="2:6" ht="13.2">
       <c r="B97" s="24"/>
     </row>
-    <row r="98" spans="1:7" ht="13.2">
+    <row r="98" spans="2:6" ht="13.2">
       <c r="B98" s="24"/>
     </row>
-    <row r="99" spans="1:7" ht="13.2">
+    <row r="99" spans="2:6" ht="13.2">
       <c r="B99" s="24"/>
     </row>
-    <row r="100" spans="1:7" ht="13.2">
+    <row r="100" spans="2:6" ht="13.2">
       <c r="B100" s="24"/>
     </row>
-    <row r="101" spans="1:7" ht="13.2">
+    <row r="101" spans="2:6" ht="13.2">
       <c r="B101" s="24"/>
     </row>
-    <row r="102" spans="1:7" ht="13.2">
+    <row r="102" spans="2:6" ht="13.2">
       <c r="B102" s="24"/>
     </row>
-    <row r="103" spans="1:7" ht="13.2">
-      <c r="A103" s="68"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-    </row>
-    <row r="104" spans="1:7" ht="13.2">
+    <row r="103" spans="2:6" ht="13.2">
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="F103" s="67"/>
+    </row>
+    <row r="104" spans="2:6" ht="13.2">
       <c r="B104" s="24"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="F104" s="67"/>
     </row>
-    <row r="105" spans="1:7" ht="13.2">
+    <row r="105" spans="2:6" ht="13.2">
       <c r="B105" s="24"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="F105" s="67"/>
     </row>
-    <row r="106" spans="1:7" ht="13.2">
+    <row r="106" spans="2:6" ht="13.2">
       <c r="B106" s="24"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="F106" s="67"/>
     </row>
-    <row r="107" spans="1:7" ht="13.2">
+    <row r="107" spans="2:6" ht="13.2">
       <c r="B107" s="24"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="F107" s="67"/>
     </row>
-    <row r="108" spans="1:7" ht="13.2">
+    <row r="108" spans="2:6" ht="13.2">
       <c r="B108" s="24"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="F108" s="67"/>
     </row>
-    <row r="109" spans="1:7" ht="13.2">
+    <row r="109" spans="2:6" ht="13.2">
       <c r="B109" s="24"/>
       <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="F109" s="67"/>
-    </row>
-    <row r="110" spans="1:7" ht="13.2">
+    </row>
+    <row r="110" spans="2:6" ht="13.2">
       <c r="B110" s="24"/>
       <c r="C110" s="25"/>
-    </row>
-    <row r="111" spans="1:7" ht="13.2">
+      <c r="D110" s="25"/>
+    </row>
+    <row r="111" spans="2:6" ht="13.2">
       <c r="B111" s="24"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
     </row>
-    <row r="112" spans="1:7" ht="13.2">
+    <row r="112" spans="2:6" ht="13.2">
       <c r="B112" s="24"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
@@ -9122,12 +9072,12 @@
       <c r="D130" s="25"/>
     </row>
     <row r="131" spans="2:4" ht="13.2">
-      <c r="B131" s="24"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
     </row>
     <row r="132" spans="2:4" ht="13.2">
-      <c r="B132" s="27"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
     </row>
@@ -9191,86 +9141,82 @@
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
     </row>
-    <row r="145" spans="1:7" ht="13.2">
+    <row r="145" spans="2:4" ht="13.2">
       <c r="B145" s="26"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
     </row>
-    <row r="146" spans="1:7" ht="13.2">
+    <row r="146" spans="2:4" ht="13.2">
       <c r="B146" s="26"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
     </row>
-    <row r="147" spans="1:7" ht="13.2">
-      <c r="A147" s="68"/>
-      <c r="B147" s="69"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="69"/>
-    </row>
-    <row r="148" spans="1:7" ht="13.2">
+    <row r="147" spans="2:4" ht="13.2">
+      <c r="B147" s="26"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+    </row>
+    <row r="148" spans="2:4" ht="13.2">
       <c r="B148" s="26"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
     </row>
-    <row r="149" spans="1:7" ht="13.2">
+    <row r="149" spans="2:4" ht="13.2">
       <c r="B149" s="26"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
     </row>
-    <row r="150" spans="1:7" ht="13.2">
+    <row r="150" spans="2:4" ht="13.2">
       <c r="B150" s="26"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
     </row>
-    <row r="151" spans="1:7" ht="13.2">
+    <row r="151" spans="2:4" ht="13.2">
       <c r="B151" s="26"/>
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
     </row>
-    <row r="152" spans="1:7" ht="13.2">
+    <row r="152" spans="2:4" ht="13.2">
       <c r="B152" s="26"/>
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
     </row>
-    <row r="153" spans="1:7" ht="13.2">
+    <row r="153" spans="2:4" ht="13.2">
       <c r="B153" s="26"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
     </row>
-    <row r="154" spans="1:7" ht="13.2">
+    <row r="154" spans="2:4" ht="13.2">
       <c r="B154" s="26"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
     </row>
-    <row r="155" spans="1:7" ht="13.2">
+    <row r="155" spans="2:4" ht="13.2">
       <c r="B155" s="26"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
     </row>
-    <row r="156" spans="1:7" ht="13.2">
+    <row r="156" spans="2:4" ht="13.2">
       <c r="B156" s="26"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
     </row>
-    <row r="157" spans="1:7" ht="13.2">
+    <row r="157" spans="2:4" ht="13.2">
       <c r="B157" s="26"/>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
     </row>
-    <row r="158" spans="1:7" ht="13.2">
+    <row r="158" spans="2:4" ht="13.2">
       <c r="B158" s="26"/>
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
     </row>
-    <row r="159" spans="1:7" ht="13.2">
+    <row r="159" spans="2:4" ht="13.2">
       <c r="B159" s="26"/>
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
     </row>
-    <row r="160" spans="1:7" ht="13.2">
+    <row r="160" spans="2:4" ht="13.2">
       <c r="B160" s="26"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
@@ -9297,13 +9243,9 @@
     </row>
     <row r="165" spans="2:4" ht="13.2">
       <c r="B165" s="26"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
     </row>
     <row r="166" spans="2:4" ht="13.2">
       <c r="B166" s="26"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
     </row>
     <row r="167" spans="2:4" ht="13.2">
       <c r="B167" s="26"/>
@@ -9329,17 +9271,9 @@
     <row r="174" spans="2:4" ht="13.2">
       <c r="B174" s="26"/>
     </row>
-    <row r="175" spans="2:4" ht="13.2">
-      <c r="B175" s="26"/>
-    </row>
-    <row r="176" spans="2:4" ht="13.2">
-      <c r="B176" s="26"/>
-    </row>
+    <row r="175" spans="2:4" ht="13.2"/>
+    <row r="176" spans="2:4" ht="13.2"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A147:G147"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9349,11 +9283,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -9361,55 +9295,79 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" style="50" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="50"/>
-    <col min="9" max="9" width="12.6640625" style="50"/>
+    <col min="4" max="5" width="23.6640625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="50"/>
+    <col min="11" max="11" width="12.6640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:12" ht="26.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="52.8">
+      <c r="A2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
+        <v>2015</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="65">
+        <v>42404</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="J2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="65">
+        <v>42410</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="39.6" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>311</v>
       </c>
@@ -9417,685 +9375,874 @@
       <c r="C3" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="65">
+        <v>42404</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="65">
-        <v>42404</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="J3" s="20">
         <v>1</v>
       </c>
-      <c r="I3" s="65">
+      <c r="K3" s="65">
         <v>42410</v>
       </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="65">
-        <v>42404</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1</v>
-      </c>
-      <c r="I4" s="65">
-        <v>42410</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="67"/>
-    </row>
-    <row r="6" spans="1:10"/>
-    <row r="7" spans="1:10">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.2">
+      <c r="B4" s="67"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.2"/>
+    <row r="6" spans="1:12" ht="13.2">
+      <c r="A6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.2">
       <c r="A7" s="26"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" ht="13.2">
       <c r="A8" s="26"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" ht="13.2">
       <c r="A9" s="26"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" ht="13.2">
       <c r="A10" s="26"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="26"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12" ht="13.2">
       <c r="A12" s="26"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="26"/>
-    </row>
-    <row r="14" spans="1:10">
+    <row r="13" spans="1:12" ht="13.2">
+      <c r="B13" s="67"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:12" ht="13.2">
       <c r="B14" s="67"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.2">
       <c r="B15" s="67"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:12" ht="13.2">
       <c r="B16" s="67"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
-      <c r="F16" s="67"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="2:8" ht="13.2">
       <c r="B17" s="67"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
-      <c r="F17" s="67"/>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.2">
       <c r="B18" s="67"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="F18" s="67"/>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.2">
       <c r="B19" s="67"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="F19" s="67"/>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="2:8" ht="13.2">
       <c r="B20" s="67"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="H20" s="67"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.2">
       <c r="B21" s="67"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.2">
       <c r="B22" s="67"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.2">
       <c r="B23" s="67"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="F23" s="67"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.2">
       <c r="B24" s="67"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.2">
       <c r="B25" s="67"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.2">
       <c r="B26" s="67"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.2">
       <c r="B27" s="67"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.2">
       <c r="B28" s="67"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.2">
       <c r="B29" s="67"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="2:8" ht="13.2">
       <c r="B30" s="67"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="2:8" ht="13.2">
       <c r="B31" s="67"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="2:8" ht="13.2">
       <c r="B32" s="67"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="2:8" ht="13.2">
       <c r="B33" s="67"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.2">
       <c r="B34" s="67"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="2:8" ht="13.2">
       <c r="B35" s="67"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="F35" s="67"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="2:8" ht="13.2">
       <c r="B36" s="67"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="F36" s="67"/>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="H36" s="58"/>
+    </row>
+    <row r="37" spans="2:8" ht="13.2">
       <c r="B37" s="67"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="F37" s="58"/>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="H37" s="67"/>
+    </row>
+    <row r="38" spans="2:8" ht="13.2">
       <c r="B38" s="67"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="F38" s="67"/>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="H38" s="67"/>
+    </row>
+    <row r="39" spans="2:8" ht="13.2">
       <c r="B39" s="67"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="F39" s="67"/>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="H39" s="67"/>
+    </row>
+    <row r="40" spans="2:8" ht="13.2">
       <c r="B40" s="67"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="F40" s="67"/>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="H40" s="67"/>
+    </row>
+    <row r="41" spans="2:8" ht="13.2">
       <c r="B41" s="67"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="F41" s="67"/>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="2:8" ht="13.2">
       <c r="B42" s="67"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
-      <c r="F42" s="67"/>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="2:8" ht="13.2">
       <c r="B43" s="67"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
-      <c r="F43" s="67"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="H43" s="67"/>
+    </row>
+    <row r="44" spans="2:8" ht="13.2">
       <c r="B44" s="67"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
-      <c r="F44" s="67"/>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="2:8" ht="13.2">
       <c r="B45" s="67"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="F45" s="67"/>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="H45" s="67"/>
+    </row>
+    <row r="46" spans="2:8" ht="13.2">
       <c r="B46" s="67"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="F46" s="67"/>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="2:8" ht="13.2">
       <c r="B47" s="67"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
-      <c r="F47" s="67"/>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="H47" s="67"/>
+    </row>
+    <row r="48" spans="2:8" ht="13.2">
       <c r="B48" s="67"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
-      <c r="F48" s="67"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.2">
       <c r="B49" s="67"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
-      <c r="F49" s="67"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="H49" s="67"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.2">
       <c r="B50" s="67"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
-      <c r="F50" s="67"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="H50" s="67"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.2">
       <c r="B51" s="67"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
-      <c r="F51" s="67"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="1:9" ht="13.2">
       <c r="B52" s="67"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
-      <c r="F52" s="67"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.2">
       <c r="B53" s="67"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="F53" s="67"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.2">
       <c r="B54" s="67"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
-      <c r="F54" s="67"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" s="67"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="F55" s="67"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="H54" s="67"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.2">
+      <c r="A55" s="72"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.2">
+      <c r="B56" s="67"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.2">
       <c r="B57" s="67"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
-      <c r="F57" s="67"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="H57" s="67"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.2">
       <c r="B58" s="67"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="F58" s="67"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="H58" s="67"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.2">
       <c r="B59" s="67"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="F59" s="67"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="H59" s="67"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.2">
       <c r="B60" s="67"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="F60" s="67"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="H60" s="67"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.2">
       <c r="B61" s="67"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="F61" s="67"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="H61" s="67"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.2">
       <c r="B62" s="67"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="F62" s="67"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.2">
       <c r="B63" s="67"/>
       <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.2">
       <c r="B64" s="67"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-    </row>
-    <row r="65" spans="2:4">
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="2:6" ht="13.2">
       <c r="B65" s="67"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="2:4">
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="2:6" ht="13.2">
       <c r="B66" s="67"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="2:4">
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="2:6" ht="13.2">
       <c r="B67" s="67"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="2:4">
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="2:6" ht="13.2">
       <c r="B68" s="67"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-    </row>
-    <row r="69" spans="2:4">
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="2:6" ht="13.2">
       <c r="B69" s="67"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="2:4">
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="2:6" ht="13.2">
       <c r="B70" s="67"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="2:4">
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="2:6" ht="13.2">
       <c r="B71" s="67"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-    </row>
-    <row r="72" spans="2:4">
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72" spans="2:6" ht="13.2">
       <c r="B72" s="67"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="2:4">
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="2:6" ht="13.2">
       <c r="B73" s="67"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="2:4">
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="2:6" ht="13.2">
       <c r="B74" s="67"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-    </row>
-    <row r="75" spans="2:4">
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="2:6" ht="13.2">
       <c r="B75" s="67"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
-    </row>
-    <row r="76" spans="2:4">
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+    </row>
+    <row r="76" spans="2:6" ht="13.2">
       <c r="B76" s="67"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="2:4">
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77" spans="2:6" ht="13.2">
       <c r="B77" s="67"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="2:4">
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78" spans="2:6" ht="13.2">
       <c r="B78" s="67"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="2:4">
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" spans="2:6" ht="13.2">
       <c r="B79" s="67"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="2:4">
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="2:6" ht="13.2">
       <c r="B80" s="67"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="2:4">
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="2:6" ht="13.2">
       <c r="B81" s="67"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="2:4">
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="2:6" ht="13.2">
       <c r="B82" s="67"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="2:4">
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="2:6" ht="13.2">
       <c r="B83" s="67"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="2:4">
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" spans="2:6" ht="13.2">
       <c r="B84" s="67"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="2:4">
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="2:6" ht="13.2">
       <c r="B85" s="67"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="2:4">
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86" spans="2:6" ht="13.2">
       <c r="B86" s="67"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="2:4">
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="2:6" ht="13.2">
       <c r="B87" s="67"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-    </row>
-    <row r="88" spans="2:4">
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="2:6" ht="13.2">
       <c r="B88" s="67"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
-    </row>
-    <row r="89" spans="2:4">
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="2:6" ht="13.2">
       <c r="B89" s="67"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
-    </row>
-    <row r="90" spans="2:4">
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="2:6" ht="13.2">
       <c r="B90" s="67"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-    </row>
-    <row r="91" spans="2:4">
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="2:6" ht="13.2">
       <c r="B91" s="67"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
-    </row>
-    <row r="92" spans="2:4">
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="2:6" ht="13.2">
       <c r="B92" s="67"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
-    </row>
-    <row r="93" spans="2:4">
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="2:6" ht="13.2">
       <c r="B93" s="67"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-    </row>
-    <row r="94" spans="2:4">
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="2:6" ht="13.2">
       <c r="B94" s="67"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
-    </row>
-    <row r="95" spans="2:4">
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="2:6" ht="13.2">
       <c r="B95" s="67"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
-    </row>
-    <row r="96" spans="2:4">
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+    </row>
+    <row r="96" spans="2:6" ht="13.2">
       <c r="B96" s="67"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.2">
       <c r="B97" s="67"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.2">
       <c r="B98" s="67"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="B99" s="67"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="68"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.2">
+      <c r="A99" s="72"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+    </row>
+    <row r="100" spans="1:9" ht="13.2">
+      <c r="B100" s="67"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="1:9" ht="13.2">
       <c r="B101" s="67"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+    </row>
+    <row r="102" spans="1:9" ht="13.2">
       <c r="B102" s="67"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="1:9" ht="13.2">
       <c r="B103" s="67"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+    </row>
+    <row r="104" spans="1:9" ht="13.2">
       <c r="B104" s="67"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+    </row>
+    <row r="105" spans="1:9" ht="13.2">
       <c r="B105" s="67"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106" spans="1:9" ht="13.2">
       <c r="B106" s="67"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="1:9" ht="13.2">
       <c r="B107" s="67"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+    </row>
+    <row r="108" spans="1:9" ht="13.2">
       <c r="B108" s="67"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+    </row>
+    <row r="109" spans="1:9" ht="13.2">
       <c r="B109" s="67"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+    </row>
+    <row r="110" spans="1:9" ht="13.2">
       <c r="B110" s="67"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+    </row>
+    <row r="111" spans="1:9" ht="13.2">
       <c r="B111" s="67"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+    </row>
+    <row r="112" spans="1:9" ht="13.2">
       <c r="B112" s="67"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
-    </row>
-    <row r="113" spans="2:4">
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+    </row>
+    <row r="113" spans="2:6" ht="13.2">
       <c r="B113" s="67"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
-    </row>
-    <row r="114" spans="2:4">
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+    </row>
+    <row r="114" spans="2:6" ht="13.2">
       <c r="B114" s="67"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
-    </row>
-    <row r="115" spans="2:4">
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+    </row>
+    <row r="115" spans="2:6" ht="13.2">
       <c r="B115" s="67"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
-    </row>
-    <row r="116" spans="2:4">
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+    </row>
+    <row r="116" spans="2:6" ht="13.2">
       <c r="B116" s="67"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
-    </row>
-    <row r="117" spans="2:4">
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+    </row>
+    <row r="117" spans="2:6" ht="13.2">
       <c r="B117" s="67"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
-    </row>
-    <row r="118" spans="2:4">
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+    </row>
+    <row r="118" spans="2:6" ht="13.2">
       <c r="B118" s="67"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
-    </row>
-    <row r="119" spans="2:4">
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+    </row>
+    <row r="119" spans="2:6" ht="13.2">
       <c r="B119" s="67"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-    </row>
-    <row r="120" spans="2:4">
+    </row>
+    <row r="120" spans="2:6" ht="13.2">
       <c r="B120" s="67"/>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:6" ht="13.2">
       <c r="B121" s="67"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:6" ht="13.2">
       <c r="B122" s="67"/>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:6" ht="13.2">
       <c r="B123" s="67"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:6" ht="13.2">
       <c r="B124" s="67"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:6" ht="13.2">
       <c r="B125" s="67"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:6" ht="13.2">
       <c r="B126" s="67"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:6" ht="13.2">
       <c r="B127" s="67"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:6" ht="13.2">
       <c r="B128" s="67"/>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="67"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A100:G100"/>
+  <mergeCells count="2">
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A99:I99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10110,7 +10257,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10129,7 +10276,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>3</v>
@@ -10141,145 +10288,145 @@
         <v>5</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D2" s="33">
         <v>22016000341</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="32">
         <v>22016000340</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D4" s="37">
         <v>22016000221</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D5" s="37">
         <v>22016000223</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D6" s="37">
         <v>22016000224</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -10304,7 +10451,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="14.109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="71" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.109375" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
@@ -10316,7 +10463,7 @@
       <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="40" t="s">
@@ -10332,34 +10479,34 @@
         <v>5</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="42" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B2" s="43"/>
-      <c r="C2" s="74">
+      <c r="C2" s="70">
         <v>4201600015458</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="45">
@@ -10373,10 +10520,10 @@
         <v>4</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
